--- a/Stats coronavirus-20200508.xlsx
+++ b/Stats coronavirus-20200508.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlois\Documents\github\covid-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B40A8D76-12DF-4B84-B47F-A6D52CB3E4C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638734EA-45ED-43B5-9558-699AB7A406BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="870" activeTab="1" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10536" tabRatio="870" xr2:uid="{3F585F6D-A609-964A-8E8B-0E48C15C92B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Totaux nationaux bruts" sheetId="29" r:id="rId1"/>
@@ -1472,9 +1472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B47A5FF-8701-4E6C-9EBB-9D4523EB4841}">
   <dimension ref="A1:T131"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J109" sqref="J109"/>
+      <selection pane="bottomLeft" activeCell="B107" sqref="B107:I107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4764,7 +4764,7 @@
   </sheetPr>
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
